--- a/Excels/Samurai.xlsx
+++ b/Excels/Samurai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12240"/>
+    <workbookView windowWidth="21240" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>唯一标识</t>
   </si>
@@ -37,13 +37,46 @@
     <t>名字</t>
   </si>
   <si>
+    <t>武力</t>
+  </si>
+  <si>
+    <t>守备</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>默认兵种</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>SoldierUid</t>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>all</t>
@@ -995,73 +1028,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1">
+        <v>122</v>
+      </c>
+      <c r="F5" s="1">
+        <v>122</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1">
+        <v>122</v>
+      </c>
+      <c r="E6" s="1">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1">
+        <v>122</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1">
+        <v>122</v>
+      </c>
+      <c r="E7" s="1">
+        <v>122</v>
+      </c>
+      <c r="F7" s="1">
+        <v>122</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Samurai.xlsx
+++ b/Excels/Samurai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1120,19 +1120,19 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1178,7 +1178,7 @@
         <v>122</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1201,7 +1201,7 @@
         <v>122</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Samurai.xlsx
+++ b/Excels/Samurai.xlsx
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1143,10 +1143,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <v>122</v>
@@ -1166,10 +1166,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>122</v>
@@ -1189,10 +1189,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>122</v>

--- a/Excels/Samurai.xlsx
+++ b/Excels/Samurai.xlsx
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1143,16 +1143,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1166,16 +1166,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1189,16 +1189,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
